--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\uncultured\Uncultured\Uncultured\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA88642-432E-49C9-BB13-6C7D9F04D143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B4A622F-5626-406C-8946-5D8CBD5173A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A46C0A34-ED22-47D1-8BC2-2055B38CB641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A46C0A34-ED22-47D1-8BC2-2055B38CB641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>u</t>
   </si>
@@ -133,6 +134,21 @@
   <si>
     <t>flying cr</t>
   </si>
+  <si>
+    <t>xln</t>
+  </si>
+  <si>
+    <t>rix</t>
+  </si>
+  <si>
+    <t>eld</t>
+  </si>
+  <si>
+    <t>grn</t>
+  </si>
+  <si>
+    <t>rna</t>
+  </si>
 </sst>
 </file>
 
@@ -216,7 +232,3778 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="377">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -528,8 +4315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057AD662-880A-48CD-9029-18EA789AA567}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1113,10 +4900,10 @@
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="5">
         <v>49</v>
@@ -1126,7 +4913,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>28</v>
@@ -1156,15 +4943,14 @@
     <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A12-A13</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" s="9">
         <f t="shared" ref="B14:D14" si="2">B12-B13</f>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="9">
-        <f>C12-C13</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" s="9">
         <f t="shared" si="2"/>
@@ -1172,7 +4958,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -1257,4 +5043,629 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08417A9A-E367-420F-A9CB-B58CEC6C90C3}">
+  <dimension ref="A1:M12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+      <c r="E1">
+        <v>5</v>
+      </c>
+      <c r="F1">
+        <v>6</v>
+      </c>
+      <c r="G1">
+        <v>7</v>
+      </c>
+      <c r="H1">
+        <v>8</v>
+      </c>
+      <c r="I1">
+        <v>9</v>
+      </c>
+      <c r="J1">
+        <v>10</v>
+      </c>
+      <c r="K1">
+        <v>11</v>
+      </c>
+      <c r="L1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>A3/A4</f>
+        <v>1.1875</v>
+      </c>
+      <c r="B2">
+        <f>B3/B4</f>
+        <v>1.0461538461538462</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:L2" si="0">C3/C4</f>
+        <v>0.94285714285714284</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>1.1032608695652173</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>1.6319444444444444</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>3.125</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>3.0625</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0.625</v>
+      </c>
+      <c r="I2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="J2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L2" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <f>AVERAGE(A5:A12)</f>
+        <v>26.125</v>
+      </c>
+      <c r="B3">
+        <f>AVERAGE(B5:B12)</f>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <f>AVERAGE(C5:C12)</f>
+        <v>66</v>
+      </c>
+      <c r="D3">
+        <f>AVERAGE(D5:D12)</f>
+        <v>50.75</v>
+      </c>
+      <c r="E3">
+        <f>AVERAGE(E5:E12)</f>
+        <v>29.375</v>
+      </c>
+      <c r="F3">
+        <f>AVERAGE(F5:F12)</f>
+        <v>18.75</v>
+      </c>
+      <c r="G3">
+        <f>AVERAGE(G5:G12)</f>
+        <v>6.125</v>
+      </c>
+      <c r="H3">
+        <f>AVERAGE(H5:H12)</f>
+        <v>1.25</v>
+      </c>
+      <c r="I3">
+        <f>AVERAGE(I5:I12)</f>
+        <v>0.875</v>
+      </c>
+      <c r="J3">
+        <f>AVERAGE(J5:J12)</f>
+        <v>0.375</v>
+      </c>
+      <c r="K3">
+        <f>AVERAGE(K5:K12)</f>
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>AVERAGE(L5:L12)</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>22</v>
+      </c>
+      <c r="B4" s="5">
+        <v>65</v>
+      </c>
+      <c r="C4" s="5">
+        <v>70</v>
+      </c>
+      <c r="D4" s="5">
+        <v>46</v>
+      </c>
+      <c r="E4" s="5">
+        <v>18</v>
+      </c>
+      <c r="F4" s="5">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5">
+        <v>2</v>
+      </c>
+      <c r="H4" s="5">
+        <v>2</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>34</v>
+      </c>
+      <c r="B5">
+        <v>62</v>
+      </c>
+      <c r="C5">
+        <v>60</v>
+      </c>
+      <c r="D5">
+        <v>46</v>
+      </c>
+      <c r="E5">
+        <v>31</v>
+      </c>
+      <c r="F5">
+        <v>13</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>3</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>16</v>
+      </c>
+      <c r="B6">
+        <v>49</v>
+      </c>
+      <c r="C6">
+        <v>54</v>
+      </c>
+      <c r="D6">
+        <v>42</v>
+      </c>
+      <c r="E6">
+        <v>15</v>
+      </c>
+      <c r="F6">
+        <v>9</v>
+      </c>
+      <c r="G6">
+        <v>3</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>66</v>
+      </c>
+      <c r="C7">
+        <v>71</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>36</v>
+      </c>
+      <c r="F7">
+        <v>21</v>
+      </c>
+      <c r="G7">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>2</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>40</v>
+      </c>
+      <c r="B8">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>83</v>
+      </c>
+      <c r="D8">
+        <v>59</v>
+      </c>
+      <c r="E8">
+        <v>32</v>
+      </c>
+      <c r="F8">
+        <v>23</v>
+      </c>
+      <c r="G8">
+        <v>12</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>58</v>
+      </c>
+      <c r="C9">
+        <v>65</v>
+      </c>
+      <c r="D9">
+        <v>52</v>
+      </c>
+      <c r="E9">
+        <v>24</v>
+      </c>
+      <c r="F9">
+        <v>17</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>62</v>
+      </c>
+      <c r="C10">
+        <v>66</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>18</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>70</v>
+      </c>
+      <c r="C11">
+        <v>63</v>
+      </c>
+      <c r="D11">
+        <v>48</v>
+      </c>
+      <c r="E11">
+        <v>35</v>
+      </c>
+      <c r="F11">
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>31</v>
+      </c>
+      <c r="B12">
+        <v>78</v>
+      </c>
+      <c r="C12">
+        <v>66</v>
+      </c>
+      <c r="D12">
+        <v>59</v>
+      </c>
+      <c r="E12">
+        <v>34</v>
+      </c>
+      <c r="F12">
+        <v>30</v>
+      </c>
+      <c r="G12">
+        <v>7</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A5:A12">
+    <cfRule type="cellIs" dxfId="26" priority="26" operator="lessThan">
+      <formula>$A$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="25" priority="27" operator="greaterThan">
+      <formula>$A$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:B12">
+    <cfRule type="cellIs" dxfId="24" priority="12" operator="lessThan">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="23" priority="24" operator="greaterThan">
+      <formula>$B$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="22" priority="25" operator="greaterThan">
+      <formula>$B$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C5:C12">
+    <cfRule type="cellIs" dxfId="21" priority="1" operator="greaterThan">
+      <formula>$C$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="lessThan">
+      <formula>$C$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="23" operator="greaterThan">
+      <formula>"6$C$3"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D5:D12">
+    <cfRule type="cellIs" dxfId="18" priority="10" operator="lessThan">
+      <formula>$D$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="17" priority="22" operator="greaterThan">
+      <formula>$D$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E5:E12">
+    <cfRule type="cellIs" dxfId="16" priority="9" operator="lessThan">
+      <formula>$E$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="15" priority="21" operator="greaterThan">
+      <formula>$E$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5:F12">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="lessThan">
+      <formula>$F$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="19" operator="greaterThan">
+      <formula>$F$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="20" operator="greaterThan">
+      <formula>$F$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5:G12">
+    <cfRule type="cellIs" dxfId="11" priority="7" operator="lessThan">
+      <formula>$G$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="18" operator="greaterThan">
+      <formula>$G$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5:H12">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+      <formula>$H$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="17" operator="greaterThan">
+      <formula>$H$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:I12">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+      <formula>2</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="16" operator="greaterThan">
+      <formula>$I$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5:J12">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="lessThan">
+      <formula>$J$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="15" operator="greaterThan">
+      <formula>$J$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5:K12">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+      <formula>$K$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="14" operator="greaterThan">
+      <formula>$K$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5:L12">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+      <formula>$L$4</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="13" operator="greaterThan">
+      <formula>$L$4</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\uncultured\Uncultured\Uncultured\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF51EFEA-D514-4640-A7BA-679F1DBA4975}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DB8796-1B18-40FE-A08C-35480DFFCFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A46C0A34-ED22-47D1-8BC2-2055B38CB641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A46C0A34-ED22-47D1-8BC2-2055B38CB641}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>u</t>
   </si>
@@ -148,13 +149,34 @@
   </si>
   <si>
     <t>rna</t>
+  </si>
+  <si>
+    <t>warrior</t>
+  </si>
+  <si>
+    <t>goblin</t>
+  </si>
+  <si>
+    <t>elder</t>
+  </si>
+  <si>
+    <t>soldier</t>
+  </si>
+  <si>
+    <t>advisor</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +188,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -226,13 +255,13 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057AD662-880A-48CD-9029-18EA789AA567}">
   <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -847,25 +876,25 @@
       <c r="H1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="9" t="s">
+      <c r="J1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L1" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="9" t="s">
+      <c r="L1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="9" t="s">
+      <c r="N1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>32</v>
       </c>
       <c r="P1" s="4" t="s">
@@ -907,25 +936,25 @@
       <c r="H2" s="4">
         <v>37</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>8</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="8">
         <v>11</v>
       </c>
-      <c r="K2" s="9">
+      <c r="K2" s="8">
         <v>4</v>
       </c>
-      <c r="L2" s="9">
+      <c r="L2" s="8">
         <v>6</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="8">
         <v>5</v>
       </c>
-      <c r="N2" s="9">
-        <v>1</v>
-      </c>
-      <c r="O2" s="9">
+      <c r="N2" s="8">
+        <v>1</v>
+      </c>
+      <c r="O2" s="8">
         <v>3</v>
       </c>
       <c r="P2" s="4">
@@ -967,25 +996,25 @@
       <c r="H3" s="4">
         <v>38</v>
       </c>
-      <c r="I3" s="9">
+      <c r="I3" s="8">
         <v>6</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="8">
         <v>8</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="8">
         <v>6</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="8">
         <v>5</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="8">
         <v>3</v>
       </c>
-      <c r="N3" s="9">
+      <c r="N3" s="8">
         <v>5</v>
       </c>
-      <c r="O3" s="9">
+      <c r="O3" s="8">
         <v>2</v>
       </c>
       <c r="P3" s="4">
@@ -1027,25 +1056,25 @@
       <c r="H4" s="4">
         <v>29</v>
       </c>
-      <c r="I4" s="9">
+      <c r="I4" s="8">
         <v>6</v>
       </c>
-      <c r="J4" s="9">
+      <c r="J4" s="8">
         <v>8</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="8">
         <v>5</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="8">
         <v>5</v>
       </c>
-      <c r="M4" s="10">
+      <c r="M4" s="9">
         <v>5</v>
       </c>
-      <c r="N4" s="9">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9">
+      <c r="N4" s="8">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8">
         <v>1</v>
       </c>
       <c r="P4" s="4">
@@ -1087,25 +1116,25 @@
       <c r="H5" s="4">
         <v>20</v>
       </c>
-      <c r="I5" s="9">
+      <c r="I5" s="8">
         <v>6</v>
       </c>
-      <c r="J5" s="9">
+      <c r="J5" s="8">
         <v>6</v>
       </c>
-      <c r="K5" s="9">
-        <v>1</v>
-      </c>
-      <c r="L5" s="9">
-        <v>0</v>
-      </c>
-      <c r="M5" s="9">
+      <c r="K5" s="8">
+        <v>1</v>
+      </c>
+      <c r="L5" s="8">
+        <v>0</v>
+      </c>
+      <c r="M5" s="8">
         <v>3</v>
       </c>
-      <c r="N5" s="9">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9">
+      <c r="N5" s="8">
+        <v>1</v>
+      </c>
+      <c r="O5" s="8">
         <v>4</v>
       </c>
       <c r="P5" s="4">
@@ -1147,25 +1176,25 @@
       <c r="H6" s="4">
         <v>27</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="8">
         <v>5</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="8">
         <v>7</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="8">
         <v>3</v>
       </c>
-      <c r="L6" s="9">
-        <v>1</v>
-      </c>
-      <c r="M6" s="9">
+      <c r="L6" s="8">
+        <v>1</v>
+      </c>
+      <c r="M6" s="8">
         <v>2</v>
       </c>
-      <c r="N6" s="9">
-        <v>1</v>
-      </c>
-      <c r="O6" s="9">
+      <c r="N6" s="8">
+        <v>1</v>
+      </c>
+      <c r="O6" s="8">
         <v>9</v>
       </c>
     </row>
@@ -1192,25 +1221,25 @@
       <c r="H7" s="4">
         <v>30</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="8">
         <v>6</v>
       </c>
-      <c r="J7" s="9">
+      <c r="J7" s="8">
         <v>8</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="8">
         <v>4</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="8">
         <v>2</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="8">
         <v>4</v>
       </c>
-      <c r="N7" s="9">
-        <v>1</v>
-      </c>
-      <c r="O7" s="9">
+      <c r="N7" s="8">
+        <v>1</v>
+      </c>
+      <c r="O7" s="8">
         <v>8</v>
       </c>
     </row>
@@ -1237,25 +1266,25 @@
       <c r="H8" s="4">
         <v>29</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="8">
         <v>8</v>
       </c>
-      <c r="J8" s="9">
+      <c r="J8" s="8">
         <v>9</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="8">
         <v>5</v>
       </c>
-      <c r="L8" s="9">
-        <v>1</v>
-      </c>
-      <c r="M8" s="9">
+      <c r="L8" s="8">
+        <v>1</v>
+      </c>
+      <c r="M8" s="8">
         <v>5</v>
       </c>
-      <c r="N8" s="9">
-        <v>1</v>
-      </c>
-      <c r="O8" s="9">
+      <c r="N8" s="8">
+        <v>1</v>
+      </c>
+      <c r="O8" s="8">
         <v>4</v>
       </c>
     </row>
@@ -1279,13 +1308,13 @@
         <f t="shared" si="0"/>
         <v>254</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="9"/>
-      <c r="N9" s="9"/>
-      <c r="O9" s="9"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="8"/>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="4">
@@ -1415,10 +1444,10 @@
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C13" s="5">
         <v>52</v>
@@ -1428,7 +1457,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>28</v>
@@ -1458,22 +1487,22 @@
     <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A12-A13</f>
-        <v>1</v>
-      </c>
-      <c r="B14" s="8">
-        <f t="shared" ref="B14:D14" si="2">B12-B13</f>
-        <v>4</v>
-      </c>
-      <c r="C14" s="8">
+        <v>2</v>
+      </c>
+      <c r="B14" s="10">
+        <f>B12-B13</f>
+        <v>2</v>
+      </c>
+      <c r="C14" s="10">
         <v>3</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="10">
         <f>D12-D13</f>
         <v>0</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -1561,11 +1590,160 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5D4E2A-7067-4B11-8847-1E9239720D91}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <f>B2+C2+D2+E2</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F6" si="0">B3+C3+D3+E3</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>9</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B2:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08417A9A-E367-420F-A9CB-B58CEC6C90C3}">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1615,11 +1793,11 @@
       </c>
       <c r="B2">
         <f>B3/B4</f>
-        <v>1.0461538461538462</v>
+        <v>1.0793650793650793</v>
       </c>
       <c r="C2">
         <f t="shared" ref="C2:L2" si="0">C3/C4</f>
-        <v>0.94285714285714284</v>
+        <v>0.92957746478873238</v>
       </c>
       <c r="D2">
         <f t="shared" si="0"/>
@@ -1631,11 +1809,11 @@
       </c>
       <c r="F2">
         <f t="shared" si="0"/>
-        <v>3.75</v>
+        <v>3.125</v>
       </c>
       <c r="G2">
         <f t="shared" si="0"/>
-        <v>0.875</v>
+        <v>2.0416666666666665</v>
       </c>
       <c r="H2">
         <f t="shared" si="0"/>
@@ -1713,10 +1891,10 @@
         <v>23</v>
       </c>
       <c r="B4" s="5">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" s="5">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5">
         <v>46</v>
@@ -1725,10 +1903,10 @@
         <v>18</v>
       </c>
       <c r="F4" s="5">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="H4" s="5">
         <v>2</v>

--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\github\uncultured\Uncultured\Uncultured\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DB8796-1B18-40FE-A08C-35480DFFCFA1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{A46C0A34-ED22-47D1-8BC2-2055B38CB641}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
   <si>
     <t>u</t>
   </si>
@@ -170,12 +164,57 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>b politici</t>
+  </si>
+  <si>
+    <t>r cigani</t>
+  </si>
+  <si>
+    <t>w babi</t>
+  </si>
+  <si>
+    <t>u policai</t>
+  </si>
+  <si>
+    <t>g batki</t>
+  </si>
+  <si>
+    <t>batki rg</t>
+  </si>
+  <si>
+    <t>policai wb</t>
+  </si>
+  <si>
+    <t>babi gw</t>
+  </si>
+  <si>
+    <t>politici ur</t>
+  </si>
+  <si>
+    <t>policai uw</t>
+  </si>
+  <si>
+    <t>cigani gb</t>
+  </si>
+  <si>
+    <t>cigani rb</t>
+  </si>
+  <si>
+    <t>babi ug</t>
+  </si>
+  <si>
+    <t>politici ub</t>
+  </si>
+  <si>
+    <t>batki rw</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -593,7 +632,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -645,7 +684,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -839,18 +878,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{057AD662-880A-48CD-9029-18EA789AA567}">
-  <dimension ref="A1:T17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,20 +1483,20 @@
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C13" s="5">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D13" s="5">
         <v>16</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>28</v>
@@ -1487,14 +1526,15 @@
     <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A12-A13</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B14" s="10">
         <f>B12-B13</f>
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C14" s="10">
-        <v>3</v>
+        <f>C12-C13</f>
+        <v>5</v>
       </c>
       <c r="D14" s="10">
         <f>D12-D13</f>
@@ -1502,7 +1542,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -1569,6 +1609,63 @@
       <c r="F17" s="4">
         <f t="shared" si="0"/>
         <v>205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1590,10 +1687,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5D4E2A-7067-4B11-8847-1E9239720D91}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
@@ -1739,7 +1836,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08417A9A-E367-420F-A9CB-B58CEC6C90C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">

--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -878,7 +878,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -888,8 +888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,20 +1483,20 @@
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
       </c>
       <c r="C13" s="5">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D13" s="5">
         <v>16</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>28</v>
@@ -1526,7 +1526,7 @@
     <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A12-A13</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B14" s="10">
         <f>B12-B13</f>
@@ -1534,7 +1534,7 @@
       </c>
       <c r="C14" s="10">
         <f>C12-C13</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" s="10">
         <f>D12-D13</f>
@@ -1542,7 +1542,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>

--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
   <si>
     <t>u</t>
   </si>
@@ -209,6 +210,33 @@
   </si>
   <si>
     <t>batki rw</t>
+  </si>
+  <si>
+    <t>kld</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>abs</t>
+  </si>
+  <si>
+    <t>creature</t>
+  </si>
+  <si>
+    <t>vehicle</t>
+  </si>
+  <si>
+    <t>noncreature</t>
+  </si>
+  <si>
+    <t>land</t>
+  </si>
+  <si>
+    <t>tc</t>
+  </si>
+  <si>
+    <t>tn</t>
   </si>
 </sst>
 </file>
@@ -889,7 +917,7 @@
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,7 +1511,7 @@
     </row>
     <row r="13" spans="1:20" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B13" s="5">
         <v>80</v>
@@ -1496,7 +1524,7 @@
       </c>
       <c r="F13" s="5">
         <f t="shared" si="0"/>
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>28</v>
@@ -1526,7 +1554,7 @@
     <row r="14" spans="1:20" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <f>A12-A13</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" s="10">
         <f>B12-B13</f>
@@ -1542,7 +1570,7 @@
       </c>
       <c r="F14" s="1">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>29</v>
@@ -2458,4 +2486,431 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>36</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E3" si="0">SUM(B2:D2)</f>
+        <v>96</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>41</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="0"/>
+        <v>75</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>18</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>51</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>128</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:E5" si="1">SUM(C2:C4)</f>
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+      <c r="F5">
+        <f>SUM(F2:F4)</f>
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <f>SUM(G2:G4)</f>
+        <v>9</v>
+      </c>
+      <c r="H5">
+        <f>SUM(H2:H4)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8">
+        <v>55</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>45</v>
+      </c>
+      <c r="E8">
+        <f>SUM(B8:D8)</f>
+        <v>103</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>32</v>
+      </c>
+      <c r="E9">
+        <f>SUM(B9:D9)</f>
+        <v>80</v>
+      </c>
+      <c r="F9">
+        <v>6</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="E10">
+        <f>SUM(B10:D10)</f>
+        <v>49</v>
+      </c>
+      <c r="F10">
+        <v>6</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
+        <f>SUM(B8:B10)</f>
+        <v>122</v>
+      </c>
+      <c r="C11">
+        <f>SUM(C8:C10)</f>
+        <v>10</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:E11" si="2">SUM(D8:D10)</f>
+        <v>100</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="2"/>
+        <v>232</v>
+      </c>
+      <c r="F11">
+        <f>SUM(F8:F10)</f>
+        <v>19</v>
+      </c>
+      <c r="G11">
+        <f>SUM(G8:G10)</f>
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>SUM(H8:H10)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D13" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>41</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E15" si="3">SUM(B14:D14)</f>
+        <v>100</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>49</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>80</v>
+      </c>
+      <c r="F15">
+        <v>5</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <f>SUM(B16:D16)</f>
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17">
+        <f>SUM(B14:B16)</f>
+        <v>131</v>
+      </c>
+      <c r="C17">
+        <f t="shared" ref="C17:E17" si="4">SUM(C14:C16)</f>
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="4"/>
+        <v>96</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="4"/>
+        <v>227</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ref="F17" si="5">SUM(F14:F16)</f>
+        <v>9</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ref="G17" si="6">SUM(G14:G16)</f>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Uncultured/table 2 new and improved.xlsx
+++ b/Uncultured/table 2 new and improved.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="tribes numbers" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>u</t>
   </si>
@@ -237,6 +238,42 @@
   </si>
   <si>
     <t>tn</t>
+  </si>
+  <si>
+    <t>Goblins</t>
+  </si>
+  <si>
+    <t>Soldiers</t>
+  </si>
+  <si>
+    <t>Elders</t>
+  </si>
+  <si>
+    <t>Warriors</t>
+  </si>
+  <si>
+    <t>Advisors</t>
+  </si>
+  <si>
+    <t>Main</t>
+  </si>
+  <si>
+    <t>Multi</t>
+  </si>
+  <si>
+    <t>Sec</t>
+  </si>
+  <si>
+    <t>Ter</t>
+  </si>
+  <si>
+    <t>ART</t>
+  </si>
+  <si>
+    <t>shared</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -267,7 +304,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -298,8 +335,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -307,11 +386,31 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -329,6 +428,22 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -906,7 +1021,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -916,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -2913,4 +3028,419 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.140625" style="12"/>
+    <col min="3" max="3" width="9.140625" style="13"/>
+    <col min="4" max="4" width="9.140625" style="14"/>
+    <col min="5" max="5" width="9.140625" style="16"/>
+    <col min="6" max="6" width="9.140625" style="12"/>
+    <col min="7" max="7" width="9.140625" style="13"/>
+    <col min="8" max="8" width="9.140625" style="14"/>
+    <col min="9" max="9" width="9.140625" style="16"/>
+    <col min="10" max="10" width="9.140625" style="12"/>
+    <col min="11" max="11" width="9.140625" style="13"/>
+    <col min="12" max="12" width="9.140625" style="14"/>
+    <col min="13" max="13" width="9.140625" style="16"/>
+    <col min="14" max="14" width="9.140625" style="12"/>
+    <col min="15" max="15" width="9.140625" style="13"/>
+    <col min="16" max="16" width="9.140625" style="14"/>
+    <col min="17" max="17" width="9.140625" style="16"/>
+    <col min="18" max="18" width="9.140625" style="12"/>
+    <col min="19" max="19" width="9.140625" style="13"/>
+    <col min="20" max="20" width="9.140625" style="14"/>
+    <col min="21" max="21" width="9.140625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11"/>
+      <c r="U1" s="11"/>
+    </row>
+    <row r="2" spans="1:21" s="17" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="R2" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="S2" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="U2" s="21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="12">
+        <v>4</v>
+      </c>
+      <c r="C3" s="13">
+        <v>6</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>4</v>
+      </c>
+      <c r="G3" s="13">
+        <v>4</v>
+      </c>
+      <c r="H3" s="14">
+        <v>1</v>
+      </c>
+      <c r="J3" s="12">
+        <v>5</v>
+      </c>
+      <c r="K3" s="13">
+        <v>5</v>
+      </c>
+      <c r="N3" s="12">
+        <v>3</v>
+      </c>
+      <c r="O3" s="13">
+        <v>3</v>
+      </c>
+      <c r="P3" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>1</v>
+      </c>
+      <c r="R3" s="12">
+        <v>4</v>
+      </c>
+      <c r="S3" s="13">
+        <v>5</v>
+      </c>
+      <c r="T3" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B4" s="12">
+        <v>2</v>
+      </c>
+      <c r="C4" s="13">
+        <v>2</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2</v>
+      </c>
+      <c r="H4" s="14">
+        <v>2</v>
+      </c>
+      <c r="J4" s="12">
+        <v>5</v>
+      </c>
+      <c r="K4" s="13">
+        <v>2</v>
+      </c>
+      <c r="L4" s="14">
+        <v>1</v>
+      </c>
+      <c r="N4" s="12">
+        <v>4</v>
+      </c>
+      <c r="O4" s="13">
+        <v>2</v>
+      </c>
+      <c r="P4" s="14">
+        <v>2</v>
+      </c>
+      <c r="R4" s="12">
+        <v>3</v>
+      </c>
+      <c r="S4" s="13">
+        <v>1</v>
+      </c>
+      <c r="T4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="12">
+        <v>2</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="12">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16">
+        <v>1</v>
+      </c>
+      <c r="J5" s="12">
+        <v>1</v>
+      </c>
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="14">
+        <v>1</v>
+      </c>
+      <c r="M5" s="16">
+        <v>1</v>
+      </c>
+      <c r="N5" s="12">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>1</v>
+      </c>
+      <c r="R5" s="12">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13">
+        <v>1</v>
+      </c>
+      <c r="U5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>78</v>
+      </c>
+      <c r="B6" s="12">
+        <v>1</v>
+      </c>
+      <c r="F6" s="12">
+        <v>1</v>
+      </c>
+      <c r="J6" s="12">
+        <v>1</v>
+      </c>
+      <c r="O6" s="13">
+        <v>2</v>
+      </c>
+      <c r="T6" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="12">
+        <v>1</v>
+      </c>
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="B8" s="22">
+        <f>SUM(B3:B7)</f>
+        <v>10</v>
+      </c>
+      <c r="C8" s="23">
+        <f t="shared" ref="C8:U8" si="0">SUM(C3:C7)</f>
+        <v>9</v>
+      </c>
+      <c r="D8" s="24">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="G8" s="23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="H8" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J8" s="22">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="K8" s="23">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="L8" s="24">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="M8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="O8" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="P8" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q8" s="15">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="R8" s="22">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="S8" s="23">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="T8" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="U8" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="N9" s="12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="J1:M1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>